--- a/Analsysis.xlsx
+++ b/Analsysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10485B79D9531A5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F458B0B-DCA6-4DC1-A694-A9664F34E64A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="2" r:id="rId1"/>
@@ -4491,29 +4491,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3562F-1EF3-47AD-8484-712B38A99D27}">
   <dimension ref="A3:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I4" s="16"/>
       <c r="J4" s="6" t="s">
         <v>13</v>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4616,7 +4616,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="I6" s="17"/>
       <c r="J6" s="6">
         <v>1.8666670000000001</v>
@@ -4655,12 +4655,12 @@
         <v>1.788889</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4677,7 +4677,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4692,7 +4692,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4707,7 +4707,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4739,8 +4739,8 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
     </row>
-    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="2"/>
       <c r="J20" s="11" t="s">
         <v>16</v>
@@ -4757,7 +4757,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
         <v>13</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="2"/>
       <c r="J22" s="2">
         <v>125</v>
@@ -4835,7 +4835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="2" t="s">
         <v>0</v>
       </c>
@@ -4876,20 +4876,20 @@
         <v>1.273684</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I30" s="14" t="s">
         <v>14</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
         <v>13</v>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
         <v>1</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1.788889</v>
       </c>
     </row>
-    <row r="33" spans="9:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:21" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
         <v>0</v>
       </c>
@@ -5047,15 +5047,15 @@
       <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
     </row>
-    <row r="2" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J2" s="6" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J3" s="6">
         <v>185</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J4" s="6">
         <v>1.8877550000000001</v>
       </c>
@@ -5185,18 +5185,18 @@
         <v>1.6122449999999999</v>
       </c>
     </row>
-    <row r="6" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:21" x14ac:dyDescent="0.25">
       <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:21" x14ac:dyDescent="0.25">
       <c r="K7" s="6">
         <v>98.000005299999998</v>
       </c>
     </row>
-    <row r="24" spans="10:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J25" s="11" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="2" t="s">
         <v>13</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="2">
         <v>143</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="2">
         <v>1.3619049999999999</v>
       </c>
@@ -5326,19 +5326,19 @@
         <v>1.1714290000000001</v>
       </c>
     </row>
-    <row r="29" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K30" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="10:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K31" s="2">
         <v>104.9999816</v>
       </c>
     </row>
-    <row r="32" spans="10:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="10:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J40" s="5"/>
       <c r="K40" s="14" t="s">
         <v>14</v>
@@ -5355,7 +5355,7 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="10:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J41" s="5"/>
       <c r="K41" s="1" t="s">
         <v>13</v>
@@ -5394,7 +5394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="10:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J42" s="5" t="s">
         <v>1</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1.6122449999999999</v>
       </c>
     </row>
-    <row r="43" spans="10:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J43" s="5" t="s">
         <v>0</v>
       </c>
@@ -5495,17 +5495,17 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G5" s="6">
         <v>165</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G6" s="6">
         <v>1.7934779999999999</v>
       </c>
@@ -5635,18 +5635,18 @@
         <v>1.8913040000000001</v>
       </c>
     </row>
-    <row r="8" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="7:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:18" x14ac:dyDescent="0.25">
       <c r="H9" s="6">
         <f>165/1.793478</f>
         <v>92.000013381820139</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5677,8 +5677,8 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="11" t="s">
         <v>18</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G22" s="2">
         <v>114</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G23" s="2">
         <v>1.163265</v>
       </c>
@@ -5808,20 +5808,20 @@
         <v>1.3469390000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H26" s="2">
         <f>114/1.163265</f>
         <v>98.000025789480475</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H30" s="14" t="s">
         <v>14</v>
       </c>
@@ -5837,7 +5837,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="G32" s="5" t="s">
         <v>1</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1.8913040000000001</v>
       </c>
     </row>
-    <row r="33" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G33" s="5" t="s">
         <v>0</v>
       </c>
